--- a/xlsx/营销管理_intext.xlsx
+++ b/xlsx/营销管理_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
   <si>
     <t>营销管理</t>
   </si>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%81%93%E5%BE%B7</t>
   </si>
   <si>
-    <t>行銷道德</t>
+    <t>行销道德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>市場調查</t>
+    <t>市场调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E5%88%92%E5%88%86</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%83%E9%8A%B7%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>促銷活動</t>
+    <t>促销活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E9%8A%B7%E5%93%A1</t>
   </si>
   <si>
-    <t>推銷員</t>
+    <t>推销员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%95%88%E8%90%A5%E9%94%80</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AE%E5%85%A5%E6%80%A7%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>置入性行銷</t>
+    <t>置入性行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7</t>
@@ -173,31 +173,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E6%99%82%E9%BB%9E%E6%83%85%E5%A0%B1%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>銷售時點情報系統</t>
+    <t>销售时点情报系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%88%E5%93%81</t>
   </si>
   <si>
-    <t>贈品</t>
+    <t>赠品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>數位行銷</t>
+    <t>数位行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>廣告遊戲</t>
+    <t>广告游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%BB%A3</t>
   </si>
   <si>
-    <t>推廣</t>
+    <t>推广</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A8%80%E4%BA%BA</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%A3%93%E5%BC%8F%E6%8E%A8%E9%8A%B7</t>
   </si>
   <si>
-    <t>層壓式推銷</t>
+    <t>层压式推销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E6%AF%92%E8%90%A5%E9%94%80</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E9%8A%B7%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國行銷學會</t>
+    <t>美国行销学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%8A%83</t>
   </si>
   <si>
-    <t>規劃</t>
+    <t>规划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6</t>
@@ -257,21 +257,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F</t>
   </si>
   <si>
-    <t>創意</t>
+    <t>创意</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>產品</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%83%E9%94%80</t>
   </si>
   <si>
@@ -281,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E5%AD%B8</t>
   </si>
   <si>
-    <t>行銷學</t>
+    <t>行销学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -545,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -677,25 +671,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -725,15 +719,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
   </si>
   <si>
-    <t>决策</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Forecasting</t>
   </si>
   <si>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -773,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -839,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -2451,7 +2442,7 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2477,10 +2468,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2506,10 +2497,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2535,10 +2526,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2564,10 +2555,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2622,10 +2613,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2651,10 +2642,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2680,10 +2671,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2709,10 +2700,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2738,10 +2729,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2767,10 +2758,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2796,10 +2787,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2825,10 +2816,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2854,10 +2845,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2883,10 +2874,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2912,10 +2903,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2941,10 +2932,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2970,10 +2961,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2999,10 +2990,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3028,10 +3019,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3057,10 +3048,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3086,10 +3077,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3115,10 +3106,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3144,10 +3135,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3173,10 +3164,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3202,10 +3193,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3231,10 +3222,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3260,10 +3251,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3289,10 +3280,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3318,10 +3309,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3347,10 +3338,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3376,10 +3367,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3405,10 +3396,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3434,10 +3425,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3463,10 +3454,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3492,10 +3483,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3521,10 +3512,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3550,10 +3541,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3579,10 +3570,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3608,10 +3599,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3637,10 +3628,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3666,10 +3657,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3695,10 +3686,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3724,10 +3715,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3753,10 +3744,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3782,10 +3773,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3811,10 +3802,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3840,10 +3831,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3869,10 +3860,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3898,10 +3889,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3927,10 +3918,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3956,10 +3947,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3985,10 +3976,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4014,10 +4005,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4043,10 +4034,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4072,10 +4063,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4101,10 +4092,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4130,10 +4121,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4159,10 +4150,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4188,10 +4179,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4217,10 +4208,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4246,10 +4237,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4275,10 +4266,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4304,10 +4295,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4333,10 +4324,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4362,10 +4353,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4391,10 +4382,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4420,10 +4411,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4449,10 +4440,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4478,10 +4469,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4507,10 +4498,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4536,10 +4527,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4565,10 +4556,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4594,10 +4585,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4623,10 +4614,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4652,10 +4643,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4681,10 +4672,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4710,10 +4701,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4739,10 +4730,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4768,10 +4759,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4797,10 +4788,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4826,10 +4817,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4855,10 +4846,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4884,10 +4875,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4913,10 +4904,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4942,10 +4933,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4971,10 +4962,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5000,10 +4991,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5029,10 +5020,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5058,10 +5049,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5087,10 +5078,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5116,10 +5107,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5145,10 +5136,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5174,10 +5165,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F135" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5203,10 +5194,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5232,10 +5223,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5261,10 +5252,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5290,10 +5281,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5319,10 +5310,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5348,10 +5339,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5377,10 +5368,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5406,10 +5397,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5435,10 +5426,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5464,10 +5455,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5493,10 +5484,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5522,10 +5513,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5551,10 +5542,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5580,10 +5571,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5609,10 +5600,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5638,10 +5629,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5667,10 +5658,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5696,10 +5687,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
